--- a/Documentação/Planilhas/Layouts/Ruptura_Vitrine.xlsx
+++ b/Documentação/Planilhas/Layouts/Ruptura_Vitrine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="88" r:id="rId1"/>
@@ -1729,9 +1729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2042,7 +2040,7 @@
   </sheetPr>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2230,6 +2228,180 @@
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1"/>
+    <row r="23" spans="1:5" ht="30" customHeight="1"/>
+    <row r="24" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1"/>
+    <row r="26" spans="1:5" ht="30" customHeight="1"/>
+    <row r="27" spans="1:5" ht="30" customHeight="1"/>
+    <row r="28" spans="1:5" ht="30" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2269,180 +2441,6 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1"/>
-    <row r="23" spans="1:5" ht="30" customHeight="1"/>
-    <row r="24" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1"/>
-    <row r="26" spans="1:5" ht="30" customHeight="1"/>
-    <row r="27" spans="1:5" ht="30" customHeight="1"/>
-    <row r="28" spans="1:5" ht="30" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2569,9 +2567,7 @@
   </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B15"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2978,9 +2974,7 @@
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3235,7 +3229,7 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3361,9 +3355,7 @@
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>

--- a/Documentação/Planilhas/Layouts/Ruptura_Vitrine.xlsx
+++ b/Documentação/Planilhas/Layouts/Ruptura_Vitrine.xlsx
@@ -4,28 +4,31 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="88" r:id="rId1"/>
     <sheet name="aux_ods_ruptura_pos_estq_today" sheetId="95" r:id="rId2"/>
     <sheet name="aux_ods_rup_stat_prd_lj_today" sheetId="96" r:id="rId3"/>
     <sheet name="dim_product_loja" sheetId="98" r:id="rId4"/>
-    <sheet name="stg_corp_categoria" sheetId="90" r:id="rId5"/>
-    <sheet name="stg_corp_kit" sheetId="91" r:id="rId6"/>
-    <sheet name="stg_corp_product" sheetId="89" r:id="rId7"/>
-    <sheet name="stg_corp_sku" sheetId="79" r:id="rId8"/>
-    <sheet name="stg_loja_product" sheetId="93" r:id="rId9"/>
-    <sheet name="stg_loja_sku" sheetId="92" r:id="rId10"/>
-    <sheet name="stg_product_vitrine_departament" sheetId="94" r:id="rId11"/>
-    <sheet name="tmp_ods_ruptura_stat_prod_lj" sheetId="97" r:id="rId12"/>
+    <sheet name="fact_ruptura_vitrine" sheetId="99" r:id="rId5"/>
+    <sheet name="ods_ruptura_posicao_estoque" sheetId="100" r:id="rId6"/>
+    <sheet name="ods_ruptura_status_produto_loja" sheetId="101" r:id="rId7"/>
+    <sheet name="stg_corp_categoria" sheetId="90" r:id="rId8"/>
+    <sheet name="stg_corp_kit" sheetId="91" r:id="rId9"/>
+    <sheet name="stg_corp_product" sheetId="89" r:id="rId10"/>
+    <sheet name="stg_corp_sku" sheetId="79" r:id="rId11"/>
+    <sheet name="stg_loja_product" sheetId="93" r:id="rId12"/>
+    <sheet name="stg_loja_sku" sheetId="92" r:id="rId13"/>
+    <sheet name="stg_product_vitrine_departament" sheetId="94" r:id="rId14"/>
+    <sheet name="tmp_ods_ruptura_stat_prod_lj" sheetId="97" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="171">
   <si>
     <t>Campo</t>
   </si>
@@ -457,6 +460,87 @@
   </si>
   <si>
     <t>dim_product_loja</t>
+  </si>
+  <si>
+    <t>DadosConfiguracao</t>
+  </si>
+  <si>
+    <t>dbo.stg_loja_sku</t>
+  </si>
+  <si>
+    <t>[dbo].[fact_ruptura_vitrine]</t>
+  </si>
+  <si>
+    <t>yn_esta_visivel</t>
+  </si>
+  <si>
+    <t>yn_tem_estoque</t>
+  </si>
+  <si>
+    <t>nr_qtd_dias_sem_estoque</t>
+  </si>
+  <si>
+    <t>yn_esta_na_home_departamento</t>
+  </si>
+  <si>
+    <t>Identifica a data da posição no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>Identifica se o item SKU está visível através do seu código. Ex: 1, 0</t>
+  </si>
+  <si>
+    <t>Identifica se o item SKU tem estoque através do seu código. Ex: 1, 0</t>
+  </si>
+  <si>
+    <t>Quantidade de dias sem estoque do SKU</t>
+  </si>
+  <si>
+    <t>Identifica se o item está na home Departamento através do seu código. Ex: 0, 1</t>
+  </si>
+  <si>
+    <t>fact_ruptura_vitrine</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_ruptura_posicao_estoque]</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\manutencao_ruptura.dtsx</t>
+  </si>
+  <si>
+    <t>Quantidade de SKU disponível no estoque</t>
+  </si>
+  <si>
+    <t>Identifica o mês da data do estoque</t>
+  </si>
+  <si>
+    <t>Identifica o mês da data da posição do estoque</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_ruptura_status_produto_loja]</t>
+  </si>
+  <si>
+    <t>Identifica a data do estoque no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>Identifica a data do status do produto na loja no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>Identifica o mês da data do status do produto na loja</t>
+  </si>
+  <si>
+    <t>Identifica a flag de exibição do produto através do seu código. Ex: 0,1</t>
+  </si>
+  <si>
+    <t>Identifica se o produto está ativo através do seu código. Ex: 0, 1</t>
+  </si>
+  <si>
+    <t>Identifica se o item SKU está ativo através do seu código. Ex: 0, 1</t>
+  </si>
+  <si>
+    <t>ods_ruptura_posicao_estoque</t>
+  </si>
+  <si>
+    <t>ods_ruptura_status_produto_loja</t>
   </si>
 </sst>
 </file>
@@ -850,7 +934,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1009,6 +1093,51 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2046754" cy="843803"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1037,7 +1166,97 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1369,7 +1588,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1384,7 +1603,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="78442" y="67236"/>
-          <a:ext cx="2046754" cy="843803"/>
+          <a:ext cx="2047875" cy="861732"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1727,9 +1946,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D16"/>
+  <dimension ref="B2:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1780,113 +2001,144 @@
       <c r="D5" s="21"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="24" t="str">
+        <f>fact_ruptura_vitrine!B10</f>
+        <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\dw_ruptura.dtsx</v>
+      </c>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="24" t="str">
+        <f>ods_ruptura_posicao_estoque!B10</f>
+        <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\manutencao_ruptura.dtsx</v>
+      </c>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="24" t="str">
+        <f>ods_ruptura_status_produto_loja!B10</f>
+        <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\manutencao_ruptura.dtsx</v>
+      </c>
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="17" t="str">
+      <c r="C9" s="17" t="str">
         <f>stg_corp_categoria!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\stg_ruptura.dtsx</v>
       </c>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="16" t="s">
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="17" t="str">
+      <c r="C10" s="17" t="str">
         <f>stg_corp_kit!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\stg_ruptura.dtsx</v>
       </c>
-      <c r="D7" s="17"/>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="16" t="s">
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="17" t="str">
+      <c r="C11" s="17" t="str">
         <f>stg_corp_product!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\stg_ruptura.dtsx</v>
       </c>
-      <c r="D8" s="17"/>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="16" t="s">
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="17" t="str">
+      <c r="C12" s="17" t="str">
         <f>stg_corp_sku!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\stg_ruptura.dtsx</v>
       </c>
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="16" t="s">
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="17" t="str">
+      <c r="C13" s="17" t="str">
         <f>stg_loja_product!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\stg_ruptura.dtsx</v>
       </c>
-      <c r="D10" s="17"/>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="16" t="s">
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="17" t="str">
+      <c r="C14" s="17" t="str">
         <f>stg_loja_sku!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\stg_ruptura.dtsx</v>
       </c>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="16" t="s">
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="17" t="str">
+      <c r="C15" s="17" t="str">
         <f>stg_product_vitrine_departament!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\stg_ruptura.dtsx</v>
       </c>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="20" t="s">
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="24" t="str">
+      <c r="C16" s="24" t="str">
         <f>tmp_ods_ruptura_stat_prod_lj!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\ods_ruptura.dtsx</v>
       </c>
-      <c r="D13" s="21"/>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="20"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="21"/>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="20"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="21"/>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="18"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="19"/>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="20"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="20"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="18"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" location="aux_ods_ruptura_pos_estq_today!A1" display="aux_ods_ruptura_posicao_estoque_today"/>
     <hyperlink ref="B4" location="aux_ods_rup_stat_prd_lj_today!A1" display="aux_ods_ruptura_status_produto_loja_today"/>
     <hyperlink ref="B5" location="dim_product_loja!A1" display="dim_product_loja"/>
-    <hyperlink ref="B6" location="stg_corp_categoria!A1" display="stg_corp_categoria"/>
-    <hyperlink ref="B7" location="stg_corp_kit!A1" display="stg_corp_kit"/>
-    <hyperlink ref="B8" location="stg_corp_product!A1" display="stg_corp_product"/>
-    <hyperlink ref="B9" location="stg_corp_sku!A1" display="stg_corp_sku"/>
-    <hyperlink ref="B10" location="stg_loja_product!A1" display="stg_loja_product"/>
-    <hyperlink ref="B11" location="stg_loja_sku!A1" display="stg_loja_sku"/>
-    <hyperlink ref="B12" location="stg_product_vitrine_departament!A1" display="stg_product_vitrine_departamento"/>
-    <hyperlink ref="B13" location="tmp_ods_ruptura_stat_prod_lj!A1" display="tmp_ods_ruptura_status_produto_loja"/>
+    <hyperlink ref="B9" location="stg_corp_categoria!A1" display="stg_corp_categoria"/>
+    <hyperlink ref="B10" location="stg_corp_kit!A1" display="stg_corp_kit"/>
+    <hyperlink ref="B11" location="stg_corp_product!A1" display="stg_corp_product"/>
+    <hyperlink ref="B12" location="stg_corp_sku!A1" display="stg_corp_sku"/>
+    <hyperlink ref="B13" location="stg_loja_product!A1" display="stg_loja_product"/>
+    <hyperlink ref="B14" location="stg_loja_sku!A1" display="stg_loja_sku"/>
+    <hyperlink ref="B15" location="stg_product_vitrine_departament!A1" display="stg_product_vitrine_departamento"/>
+    <hyperlink ref="B16" location="tmp_ods_ruptura_stat_prod_lj!A1" display="tmp_ods_ruptura_status_produto_loja"/>
+    <hyperlink ref="B6" location="fact_ruptura_vitrine!A1" display="fact_ruptura_vitrine"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -1898,9 +2150,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1946,7 +2200,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1974,57 +2228,43 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>23</v>
+      <c r="A15" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>65</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1"/>
-    <row r="19" spans="1:5" ht="30" customHeight="1"/>
-    <row r="20" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="2"/>
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2038,9 +2278,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2086,7 +2328,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2114,107 +2356,68 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>79</v>
-      </c>
+      <c r="A15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="D19" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="D20" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="D21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1">
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1"/>
-    <row r="24" spans="1:5" ht="30" customHeight="1"/>
-    <row r="25" spans="1:5" ht="30" customHeight="1"/>
+      <c r="A16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2227,9 +2430,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2267,7 +2472,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2275,7 +2480,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2283,7 +2488,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2303,92 +2508,54 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+        <v>67</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="11" t="s">
-        <v>103</v>
+      <c r="A17" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1"/>
-    <row r="23" spans="1:5" ht="30" customHeight="1"/>
-    <row r="24" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1"/>
-    <row r="26" spans="1:5" ht="30" customHeight="1"/>
-    <row r="27" spans="1:5" ht="30" customHeight="1"/>
-    <row r="28" spans="1:5" ht="30" customHeight="1"/>
+    <row r="18" spans="1:5" ht="30" customHeight="1"/>
+    <row r="19" spans="1:5" ht="30" customHeight="1"/>
+    <row r="20" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2396,14 +2563,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2449,7 +2618,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2457,7 +2626,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2477,82 +2646,62 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>76</v>
+        <v>23</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>111</v>
+        <v>63</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>112</v>
+        <v>61</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-    </row>
+      <c r="A17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1"/>
     <row r="19" spans="1:5" ht="30" customHeight="1"/>
-    <row r="20" spans="1:5" ht="30" customHeight="1"/>
-    <row r="21" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1"/>
-    <row r="23" spans="1:5" ht="30" customHeight="1"/>
-    <row r="24" spans="1:5" ht="30" customHeight="1"/>
-    <row r="25" spans="1:5" ht="30" customHeight="1"/>
+    <row r="20" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2560,14 +2709,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2613,7 +2764,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2621,7 +2772,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2641,100 +2792,107 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>61</v>
+        <v>74</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>69</v>
+      <c r="A18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>70</v>
+      <c r="D19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1"/>
+      <c r="D20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="D21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
     <row r="23" spans="1:5" ht="30" customHeight="1"/>
-    <row r="24" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="2"/>
-    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1"/>
     <row r="25" spans="1:5" ht="30" customHeight="1"/>
-    <row r="26" spans="1:5" ht="30" customHeight="1"/>
-    <row r="27" spans="1:5" ht="30" customHeight="1"/>
-    <row r="28" spans="1:5" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2742,14 +2900,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2787,7 +2947,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2795,7 +2955,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2803,7 +2963,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2823,143 +2983,92 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>118</v>
-      </c>
+      <c r="A15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>121</v>
+      <c r="A16" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+        <v>61</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>132</v>
-      </c>
+      <c r="A17" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>133</v>
+      <c r="A18" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="2"/>
+      <c r="A19" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1">
-      <c r="A24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1">
-      <c r="A26" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1">
-      <c r="A28" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1"/>
-    <row r="30" spans="1:5" ht="30" customHeight="1"/>
-    <row r="31" spans="1:5" ht="30" customHeight="1"/>
+      <c r="A21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1"/>
+    <row r="23" spans="1:5" ht="30" customHeight="1"/>
+    <row r="24" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1"/>
+    <row r="26" spans="1:5" ht="30" customHeight="1"/>
+    <row r="27" spans="1:5" ht="30" customHeight="1"/>
+    <row r="28" spans="1:5" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2967,14 +3076,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3020,7 +3131,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3028,7 +3139,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -3048,52 +3159,82 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="A15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="A16" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="2"/>
-    </row>
+      <c r="A17" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1"/>
+    <row r="20" spans="1:5" ht="30" customHeight="1"/>
+    <row r="21" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1"/>
+    <row r="23" spans="1:5" ht="30" customHeight="1"/>
+    <row r="24" spans="1:5" ht="30" customHeight="1"/>
+    <row r="25" spans="1:5" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3101,14 +3242,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3154,7 +3297,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3162,7 +3305,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -3182,39 +3325,100 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="A15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1"/>
-    <row r="18" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="2"/>
-    </row>
+      <c r="A16" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1"/>
+    <row r="23" spans="1:5" ht="30" customHeight="1"/>
+    <row r="24" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1"/>
+    <row r="26" spans="1:5" ht="30" customHeight="1"/>
+    <row r="27" spans="1:5" ht="30" customHeight="1"/>
+    <row r="28" spans="1:5" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3222,14 +3426,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3275,7 +3481,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3283,7 +3489,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -3303,44 +3509,143 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+        <v>130</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
+        <v>131</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1"/>
+    <row r="30" spans="1:5" ht="30" customHeight="1"/>
+    <row r="31" spans="1:5" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3348,14 +3653,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3401,7 +3708,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3409,7 +3716,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -3429,68 +3736,103 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1"/>
+    <row r="24" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1"/>
+    <row r="26" spans="1:5" ht="30" customHeight="1"/>
+    <row r="27" spans="1:5" ht="30" customHeight="1"/>
+    <row r="28" spans="1:5" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3498,14 +3840,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3551,7 +3895,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3559,7 +3903,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -3579,53 +3923,494 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="13"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>69</v>
+        <v>159</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1"/>
+    <row r="20" spans="1:5" ht="30" customHeight="1"/>
+    <row r="21" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1"/>
+    <row r="23" spans="1:5" ht="30" customHeight="1"/>
+    <row r="24" spans="1:5" ht="30" customHeight="1"/>
+    <row r="25" spans="1:5" ht="30" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1"/>
+    <row r="23" spans="1:5" ht="30" customHeight="1"/>
+    <row r="24" spans="1:5" ht="30" customHeight="1"/>
+    <row r="25" spans="1:5" ht="30" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1"/>
-    <row r="19" spans="1:5" ht="30" customHeight="1"/>
-    <row r="20" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="2"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1"/>
+    <row r="18" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentação/Planilhas/Layouts/Ruptura_Vitrine.xlsx
+++ b/Documentação/Planilhas/Layouts/Ruptura_Vitrine.xlsx
@@ -10,25 +10,27 @@
     <sheet name="Resumo" sheetId="88" r:id="rId1"/>
     <sheet name="aux_ods_ruptura_pos_estq_today" sheetId="95" r:id="rId2"/>
     <sheet name="aux_ods_rup_stat_prd_lj_today" sheetId="96" r:id="rId3"/>
-    <sheet name="dim_product_loja" sheetId="98" r:id="rId4"/>
-    <sheet name="fact_ruptura_vitrine" sheetId="99" r:id="rId5"/>
-    <sheet name="ods_ruptura_posicao_estoque" sheetId="100" r:id="rId6"/>
-    <sheet name="ods_ruptura_status_produto_loja" sheetId="101" r:id="rId7"/>
-    <sheet name="stg_corp_categoria" sheetId="90" r:id="rId8"/>
-    <sheet name="stg_corp_kit" sheetId="91" r:id="rId9"/>
-    <sheet name="stg_corp_product" sheetId="89" r:id="rId10"/>
-    <sheet name="stg_corp_sku" sheetId="79" r:id="rId11"/>
-    <sheet name="stg_loja_product" sheetId="93" r:id="rId12"/>
-    <sheet name="stg_loja_sku" sheetId="92" r:id="rId13"/>
-    <sheet name="stg_product_vitrine_departament" sheetId="94" r:id="rId14"/>
-    <sheet name="tmp_ods_ruptura_stat_prod_lj" sheetId="97" r:id="rId15"/>
+    <sheet name="aux_dim_product_loja" sheetId="103" r:id="rId4"/>
+    <sheet name="aux_fact_ruptura_vitrine" sheetId="104" r:id="rId5"/>
+    <sheet name="dim_product_loja" sheetId="98" r:id="rId6"/>
+    <sheet name="fact_ruptura_vitrine" sheetId="99" r:id="rId7"/>
+    <sheet name="ods_ruptura_posicao_estoque" sheetId="100" r:id="rId8"/>
+    <sheet name="ods_ruptura_status_produto_loja" sheetId="101" r:id="rId9"/>
+    <sheet name="stg_corp_categoria" sheetId="90" r:id="rId10"/>
+    <sheet name="stg_corp_kit" sheetId="91" r:id="rId11"/>
+    <sheet name="stg_corp_product" sheetId="89" r:id="rId12"/>
+    <sheet name="stg_corp_sku" sheetId="79" r:id="rId13"/>
+    <sheet name="stg_loja_product" sheetId="93" r:id="rId14"/>
+    <sheet name="stg_loja_sku" sheetId="92" r:id="rId15"/>
+    <sheet name="stg_product_vitrine_departament" sheetId="94" r:id="rId16"/>
+    <sheet name="tmp_ods_ruptura_stat_prod_lj" sheetId="97" r:id="rId17"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="175">
   <si>
     <t>Campo</t>
   </si>
@@ -541,6 +543,18 @@
   </si>
   <si>
     <t>ods_ruptura_status_produto_loja</t>
+  </si>
+  <si>
+    <t>[dbo].[aux_dim_product_loja]</t>
+  </si>
+  <si>
+    <t>aux_dim_product_loja</t>
+  </si>
+  <si>
+    <t>[dbo].[aux_fact_ruptura_vitrine]</t>
+  </si>
+  <si>
+    <t>aux_fact_ruptura_vitrine</t>
   </si>
 </sst>
 </file>
@@ -934,7 +948,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1093,7 +1107,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1108,7 +1122,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="78442" y="67236"/>
-          <a:ext cx="2046754" cy="843803"/>
+          <a:ext cx="2047875" cy="861732"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1183,7 +1197,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1198,7 +1212,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="78442" y="67236"/>
-          <a:ext cx="2047875" cy="861732"/>
+          <a:ext cx="2046754" cy="843803"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1257,6 +1271,96 @@
 </file>
 
 <file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1946,10 +2050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D19"/>
+  <dimension ref="B2:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1974,7 +2078,7 @@
       <c r="B3" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="17" t="str">
+      <c r="C3" s="24" t="str">
         <f>aux_ods_ruptura_pos_estq_today!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\ods_ruptura.dtsx</v>
       </c>
@@ -1984,7 +2088,7 @@
       <c r="B4" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="17" t="str">
+      <c r="C4" s="24" t="str">
         <f>aux_ods_ruptura_pos_estq_today!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\ods_ruptura.dtsx</v>
       </c>
@@ -1992,153 +2096,173 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="24" t="str">
+        <f>aux_dim_product_loja!B10</f>
+        <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\dw_ruptura.dtsx</v>
+      </c>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="24" t="str">
+        <f>aux_fact_ruptura_vitrine!B10</f>
+        <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\dw_ruptura.dtsx</v>
+      </c>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="24" t="str">
+      <c r="C7" s="24" t="str">
         <f>dim_product_loja!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\dw_ruptura.dtsx</v>
       </c>
-      <c r="D5" s="21"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="20" t="s">
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="24" t="str">
+      <c r="C8" s="24" t="str">
         <f>fact_ruptura_vitrine!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\dw_ruptura.dtsx</v>
       </c>
-      <c r="D6" s="21"/>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="20" t="s">
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="24" t="str">
+      <c r="C9" s="24" t="str">
         <f>ods_ruptura_posicao_estoque!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\manutencao_ruptura.dtsx</v>
       </c>
-      <c r="D7" s="21"/>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="20" t="s">
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="24" t="str">
+      <c r="C10" s="24" t="str">
         <f>ods_ruptura_status_produto_loja!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\manutencao_ruptura.dtsx</v>
       </c>
-      <c r="D8" s="21"/>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="16" t="s">
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="17" t="str">
+      <c r="C11" s="24" t="str">
         <f>stg_corp_categoria!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\stg_ruptura.dtsx</v>
       </c>
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="16" t="s">
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="17" t="str">
+      <c r="C12" s="24" t="str">
         <f>stg_corp_kit!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\stg_ruptura.dtsx</v>
       </c>
-      <c r="D10" s="17"/>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="16" t="s">
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="17" t="str">
+      <c r="C13" s="24" t="str">
         <f>stg_corp_product!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\stg_ruptura.dtsx</v>
       </c>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="16" t="s">
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="17" t="str">
+      <c r="C14" s="24" t="str">
         <f>stg_corp_sku!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\stg_ruptura.dtsx</v>
       </c>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="16" t="s">
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="17" t="str">
+      <c r="C15" s="24" t="str">
         <f>stg_loja_product!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\stg_ruptura.dtsx</v>
       </c>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="16" t="s">
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="17" t="str">
+      <c r="C16" s="24" t="str">
         <f>stg_loja_sku!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\stg_ruptura.dtsx</v>
       </c>
-      <c r="D14" s="17"/>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="16" t="s">
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="17" t="str">
+      <c r="C17" s="24" t="str">
         <f>stg_product_vitrine_departament!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\stg_ruptura.dtsx</v>
       </c>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="20" t="s">
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="24" t="str">
+      <c r="C18" s="24" t="str">
         <f>tmp_ods_ruptura_stat_prod_lj!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\ods_ruptura.dtsx</v>
       </c>
-      <c r="D16" s="21"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="20"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="21"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="20"/>
-      <c r="C18" s="24"/>
       <c r="D18" s="21"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="18"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="20"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="18"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" location="aux_ods_ruptura_pos_estq_today!A1" display="aux_ods_ruptura_posicao_estoque_today"/>
     <hyperlink ref="B4" location="aux_ods_rup_stat_prd_lj_today!A1" display="aux_ods_ruptura_status_produto_loja_today"/>
-    <hyperlink ref="B5" location="dim_product_loja!A1" display="dim_product_loja"/>
-    <hyperlink ref="B9" location="stg_corp_categoria!A1" display="stg_corp_categoria"/>
-    <hyperlink ref="B10" location="stg_corp_kit!A1" display="stg_corp_kit"/>
-    <hyperlink ref="B11" location="stg_corp_product!A1" display="stg_corp_product"/>
-    <hyperlink ref="B12" location="stg_corp_sku!A1" display="stg_corp_sku"/>
-    <hyperlink ref="B13" location="stg_loja_product!A1" display="stg_loja_product"/>
-    <hyperlink ref="B14" location="stg_loja_sku!A1" display="stg_loja_sku"/>
-    <hyperlink ref="B15" location="stg_product_vitrine_departament!A1" display="stg_product_vitrine_departamento"/>
-    <hyperlink ref="B16" location="tmp_ods_ruptura_stat_prod_lj!A1" display="tmp_ods_ruptura_status_produto_loja"/>
-    <hyperlink ref="B6" location="fact_ruptura_vitrine!A1" display="fact_ruptura_vitrine"/>
+    <hyperlink ref="B7" location="dim_product_loja!A1" display="dim_product_loja"/>
+    <hyperlink ref="B11" location="stg_corp_categoria!A1" display="stg_corp_categoria"/>
+    <hyperlink ref="B12" location="stg_corp_kit!A1" display="stg_corp_kit"/>
+    <hyperlink ref="B13" location="stg_corp_product!A1" display="stg_corp_product"/>
+    <hyperlink ref="B14" location="stg_corp_sku!A1" display="stg_corp_sku"/>
+    <hyperlink ref="B15" location="stg_loja_product!A1" display="stg_loja_product"/>
+    <hyperlink ref="B16" location="stg_loja_sku!A1" display="stg_loja_sku"/>
+    <hyperlink ref="B17" location="stg_product_vitrine_departament!A1" display="stg_product_vitrine_departamento"/>
+    <hyperlink ref="B18" location="tmp_ods_ruptura_stat_prod_lj!A1" display="tmp_ods_ruptura_status_produto_loja"/>
+    <hyperlink ref="B8" location="fact_ruptura_vitrine!A1" display="fact_ruptura_vitrine"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -2146,6 +2270,265 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1"/>
+    <row r="18" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -2265,296 +2648,6 @@
       <c r="B17" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1"/>
-    <row r="19" spans="1:5" ht="30" customHeight="1"/>
-    <row r="20" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2618,7 +2711,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2652,55 +2745,61 @@
         <v>30</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>65</v>
-      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1"/>
-    <row r="19" spans="1:5" ht="30" customHeight="1"/>
-    <row r="20" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="2"/>
+      <c r="A16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2710,6 +2809,290 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1"/>
+    <row r="19" spans="1:5" ht="30" customHeight="1"/>
+    <row r="20" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1"/>
+    <row r="19" spans="1:5" ht="30" customHeight="1"/>
+    <row r="20" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -2900,7 +3283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -3433,6 +3816,404 @@
   </sheetPr>
   <dimension ref="A1:E31"/>
   <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1"/>
+    <row r="30" spans="1:5" ht="30" customHeight="1"/>
+    <row r="31" spans="1:5" ht="30" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1"/>
+    <row r="22" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1"/>
+    <row r="24" spans="1:5" ht="30" customHeight="1"/>
+    <row r="25" spans="1:5" ht="30" customHeight="1"/>
+    <row r="26" spans="1:5" ht="30" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
@@ -3653,7 +4434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -3840,7 +4621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -3992,7 +4773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -4158,263 +4939,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:E18"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:E18"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1"/>
-    <row r="18" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Documentação/Planilhas/Layouts/Ruptura_Vitrine.xlsx
+++ b/Documentação/Planilhas/Layouts/Ruptura_Vitrine.xlsx
@@ -8,29 +8,32 @@
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="88" r:id="rId1"/>
-    <sheet name="aux_ods_ruptura_pos_estq_today" sheetId="95" r:id="rId2"/>
-    <sheet name="aux_ods_rup_stat_prd_lj_today" sheetId="96" r:id="rId3"/>
-    <sheet name="aux_dim_product_loja" sheetId="103" r:id="rId4"/>
-    <sheet name="aux_fact_ruptura_vitrine" sheetId="104" r:id="rId5"/>
-    <sheet name="dim_product_loja" sheetId="98" r:id="rId6"/>
-    <sheet name="fact_ruptura_vitrine" sheetId="99" r:id="rId7"/>
-    <sheet name="ods_ruptura_posicao_estoque" sheetId="100" r:id="rId8"/>
-    <sheet name="ods_ruptura_status_produto_loja" sheetId="101" r:id="rId9"/>
-    <sheet name="stg_corp_categoria" sheetId="90" r:id="rId10"/>
-    <sheet name="stg_corp_kit" sheetId="91" r:id="rId11"/>
-    <sheet name="stg_corp_product" sheetId="89" r:id="rId12"/>
-    <sheet name="stg_corp_sku" sheetId="79" r:id="rId13"/>
-    <sheet name="stg_loja_product" sheetId="93" r:id="rId14"/>
-    <sheet name="stg_loja_sku" sheetId="92" r:id="rId15"/>
-    <sheet name="stg_product_vitrine_departament" sheetId="94" r:id="rId16"/>
-    <sheet name="tmp_ods_ruptura_stat_prod_lj" sheetId="97" r:id="rId17"/>
+    <sheet name="aux_ods_product_loja" sheetId="105" r:id="rId2"/>
+    <sheet name="aux_ods_ruptura_pos_estq_today" sheetId="95" r:id="rId3"/>
+    <sheet name="aux_ods_rup_stat_prd_lj_today" sheetId="96" r:id="rId4"/>
+    <sheet name="aux_dim_product_loja" sheetId="103" r:id="rId5"/>
+    <sheet name="aux_fact_ruptura_vitrine" sheetId="104" r:id="rId6"/>
+    <sheet name="dim_product_loja" sheetId="98" r:id="rId7"/>
+    <sheet name="dump_ods_product_loja" sheetId="107" r:id="rId8"/>
+    <sheet name="fact_ruptura_vitrine" sheetId="99" r:id="rId9"/>
+    <sheet name="ods_product_loja" sheetId="106" r:id="rId10"/>
+    <sheet name="ods_ruptura_posicao_estoque" sheetId="100" r:id="rId11"/>
+    <sheet name="ods_ruptura_status_produto_loja" sheetId="101" r:id="rId12"/>
+    <sheet name="stg_corp_categoria" sheetId="90" r:id="rId13"/>
+    <sheet name="stg_corp_kit" sheetId="91" r:id="rId14"/>
+    <sheet name="stg_corp_product" sheetId="89" r:id="rId15"/>
+    <sheet name="stg_corp_sku" sheetId="79" r:id="rId16"/>
+    <sheet name="stg_loja_product" sheetId="93" r:id="rId17"/>
+    <sheet name="stg_loja_sku" sheetId="92" r:id="rId18"/>
+    <sheet name="stg_product_vitrine_departament" sheetId="94" r:id="rId19"/>
+    <sheet name="tmp_ods_ruptura_stat_prod_lj" sheetId="97" r:id="rId20"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="172">
   <si>
     <t>Campo</t>
   </si>
@@ -299,18 +302,6 @@
     <t>stg_corp_categoria</t>
   </si>
   <si>
-    <t>stg_corp_kit</t>
-  </si>
-  <si>
-    <t>stg_loja_sku</t>
-  </si>
-  <si>
-    <t>stg_loja_product</t>
-  </si>
-  <si>
-    <t>stg_product_vitrine_departamento</t>
-  </si>
-  <si>
     <t>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\ods_ruptura.dtsx</t>
   </si>
   <si>
@@ -380,9 +371,6 @@
     <t>MIS_RELATORIO</t>
   </si>
   <si>
-    <t>tmp_ods_ruptura_status_produto_loja</t>
-  </si>
-  <si>
     <t>[dbo].[dim_product_loja]</t>
   </si>
   <si>
@@ -461,9 +449,6 @@
     <t>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\dw_ruptura.dtsx</t>
   </si>
   <si>
-    <t>dim_product_loja</t>
-  </si>
-  <si>
     <t>DadosConfiguracao</t>
   </si>
   <si>
@@ -500,9 +485,6 @@
     <t>Identifica se o item está na home Departamento através do seu código. Ex: 0, 1</t>
   </si>
   <si>
-    <t>fact_ruptura_vitrine</t>
-  </si>
-  <si>
     <t>[dbo].[ods_ruptura_posicao_estoque]</t>
   </si>
   <si>
@@ -539,29 +521,41 @@
     <t>Identifica se o item SKU está ativo através do seu código. Ex: 0, 1</t>
   </si>
   <si>
-    <t>ods_ruptura_posicao_estoque</t>
-  </si>
-  <si>
-    <t>ods_ruptura_status_produto_loja</t>
-  </si>
-  <si>
     <t>[dbo].[aux_dim_product_loja]</t>
   </si>
   <si>
-    <t>aux_dim_product_loja</t>
-  </si>
-  <si>
     <t>[dbo].[aux_fact_ruptura_vitrine]</t>
   </si>
   <si>
-    <t>aux_fact_ruptura_vitrine</t>
+    <t>BANCO</t>
+  </si>
+  <si>
+    <t>[dbo].[aux_ods_product_loja]</t>
+  </si>
+  <si>
+    <t>ds_flag_precifabaixocusto</t>
+  </si>
+  <si>
+    <t>Identifica se o SKU foi precificado com baixo custo através do seu código. Ex: 0, 1</t>
+  </si>
+  <si>
+    <t>ods_product_loja</t>
+  </si>
+  <si>
+    <t>Está desabilitado</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_product_loja]</t>
+  </si>
+  <si>
+    <t>[dbo].[dump_ods_product_loja]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,6 +584,19 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -866,7 +873,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -922,6 +929,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -946,56 +962,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="184731" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CaixaDeTexto 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1590675" y="1114425"/>
-          <a:ext cx="184731" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>4943475</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -1197,7 +1164,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1212,7 +1179,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="78442" y="67236"/>
-          <a:ext cx="2046754" cy="843803"/>
+          <a:ext cx="2047875" cy="861732"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1332,7 +1299,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1347,7 +1314,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="78442" y="67236"/>
-          <a:ext cx="2047875" cy="861732"/>
+          <a:ext cx="2046754" cy="843803"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1405,7 +1372,142 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2050,234 +2152,1934 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D21"/>
+  <dimension ref="B2:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="72.140625" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:5">
       <c r="B2" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="24" t="str">
+    <row r="3" spans="2:5">
+      <c r="B3" s="20" t="str">
+        <f>aux_ods_product_loja!B9</f>
+        <v>[dbo].[aux_ods_product_loja]</v>
+      </c>
+      <c r="C3" s="25" t="str">
+        <f>aux_ods_product_loja!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D3" s="24" t="str">
+        <f>aux_ods_product_loja!B10</f>
+        <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\ods_ruptura.dtsx</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="20" t="str">
+        <f>aux_ods_ruptura_pos_estq_today!B9</f>
+        <v>[dbo].[aux_ods_ruptura_posicao_estoque_today]</v>
+      </c>
+      <c r="C4" s="25" t="str">
+        <f>aux_ods_ruptura_pos_estq_today!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D4" s="24" t="str">
         <f>aux_ods_ruptura_pos_estq_today!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\ods_ruptura.dtsx</v>
       </c>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="24" t="str">
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="20" t="str">
+        <f>aux_ods_rup_stat_prd_lj_today!B9</f>
+        <v>[dbo].[aux_ods_ruptura_status_produto_loja_today]</v>
+      </c>
+      <c r="C5" s="25" t="str">
+        <f>aux_ods_rup_stat_prd_lj_today!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D5" s="24" t="str">
         <f>aux_ods_ruptura_pos_estq_today!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\ods_ruptura.dtsx</v>
       </c>
-      <c r="D4" s="21"/>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="24" t="str">
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="20" t="str">
+        <f>aux_dim_product_loja!B9</f>
+        <v>[dbo].[aux_dim_product_loja]</v>
+      </c>
+      <c r="C6" s="25" t="str">
+        <f>aux_dim_product_loja!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D6" s="24" t="str">
         <f>aux_dim_product_loja!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\dw_ruptura.dtsx</v>
       </c>
-      <c r="D5" s="21"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" s="24" t="str">
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="20" t="str">
+        <f>aux_fact_ruptura_vitrine!B9</f>
+        <v>[dbo].[aux_fact_ruptura_vitrine]</v>
+      </c>
+      <c r="C7" s="25" t="str">
+        <f>aux_fact_ruptura_vitrine!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D7" s="24" t="str">
         <f>aux_fact_ruptura_vitrine!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\dw_ruptura.dtsx</v>
       </c>
-      <c r="D6" s="21"/>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="24" t="str">
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="20" t="str">
+        <f>dim_product_loja!B9</f>
+        <v>[dbo].[dim_product_loja]</v>
+      </c>
+      <c r="C8" s="25" t="str">
+        <f>dim_product_loja!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D8" s="24" t="str">
         <f>dim_product_loja!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\dw_ruptura.dtsx</v>
       </c>
-      <c r="D7" s="21"/>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="24" t="str">
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="20" t="str">
+        <f>dump_ods_product_loja!B9</f>
+        <v>[dbo].[dump_ods_product_loja]</v>
+      </c>
+      <c r="C9" s="25" t="str">
+        <f>dump_ods_product_loja!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D9" s="24" t="str">
+        <f>dump_ods_product_loja!B10</f>
+        <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\ods_ruptura.dtsx</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="20" t="str">
+        <f>fact_ruptura_vitrine!B9</f>
+        <v>[dbo].[fact_ruptura_vitrine]</v>
+      </c>
+      <c r="C10" s="25" t="str">
+        <f>fact_ruptura_vitrine!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D10" s="24" t="str">
         <f>fact_ruptura_vitrine!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\dw_ruptura.dtsx</v>
       </c>
-      <c r="D8" s="21"/>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="20" t="s">
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="20" t="str">
+        <f>ods_product_loja!B9</f>
+        <v>[dbo].[ods_product_loja]</v>
+      </c>
+      <c r="C11" s="25" t="str">
+        <f>ods_product_loja!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D11" s="24" t="str">
+        <f>ods_product_loja!B10</f>
+        <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\ods_ruptura.dtsx</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="24" t="str">
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="20" t="str">
+        <f>ods_ruptura_posicao_estoque!B9</f>
+        <v>[dbo].[ods_ruptura_posicao_estoque]</v>
+      </c>
+      <c r="C12" s="25" t="str">
+        <f>ods_ruptura_posicao_estoque!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D12" s="24" t="str">
         <f>ods_ruptura_posicao_estoque!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\manutencao_ruptura.dtsx</v>
       </c>
-      <c r="D9" s="21"/>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" s="24" t="str">
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="20" t="str">
+        <f>ods_ruptura_status_produto_loja!B9</f>
+        <v>[dbo].[ods_ruptura_status_produto_loja]</v>
+      </c>
+      <c r="C13" s="25" t="str">
+        <f>ods_ruptura_status_produto_loja!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D13" s="24" t="str">
         <f>ods_ruptura_status_produto_loja!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\manutencao_ruptura.dtsx</v>
       </c>
-      <c r="D10" s="21"/>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="24" t="str">
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="16" t="str">
+        <f>stg_corp_categoria!B9</f>
+        <v>[dbo].[stg_corp_categoria]</v>
+      </c>
+      <c r="C14" s="25" t="str">
+        <f>stg_corp_categoria!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D14" s="24" t="str">
         <f>stg_corp_categoria!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\stg_ruptura.dtsx</v>
       </c>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="24" t="str">
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="16" t="str">
+        <f>stg_corp_kit!B9</f>
+        <v>[dbo].[stg_corp_kit]</v>
+      </c>
+      <c r="C15" s="25" t="str">
+        <f>stg_corp_kit!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D15" s="24" t="str">
         <f>stg_corp_kit!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\stg_ruptura.dtsx</v>
       </c>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="24" t="str">
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="16" t="str">
+        <f>stg_corp_product!B9</f>
+        <v>[dbo].[stg_corp_product]</v>
+      </c>
+      <c r="C16" s="25" t="str">
+        <f>stg_corp_product!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D16" s="24" t="str">
         <f>stg_corp_product!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\stg_ruptura.dtsx</v>
       </c>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="24" t="str">
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="16" t="str">
+        <f>stg_corp_sku!B9</f>
+        <v>[dbo].[stg_corp_sku]</v>
+      </c>
+      <c r="C17" s="25" t="str">
+        <f>stg_corp_sku!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D17" s="24" t="str">
         <f>stg_corp_sku!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\stg_ruptura.dtsx</v>
       </c>
-      <c r="D14" s="17"/>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="24" t="str">
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="16" t="str">
+        <f>stg_loja_product!B9</f>
+        <v>[dbo].[stg_loja_product]</v>
+      </c>
+      <c r="C18" s="25" t="str">
+        <f>stg_loja_product!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D18" s="24" t="str">
         <f>stg_loja_product!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\stg_ruptura.dtsx</v>
       </c>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="24" t="str">
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="16" t="str">
+        <f>stg_loja_sku!B9</f>
+        <v>[dbo].[stg_loja_sku]</v>
+      </c>
+      <c r="C19" s="25" t="str">
+        <f>stg_loja_sku!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D19" s="24" t="str">
         <f>stg_loja_sku!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\stg_ruptura.dtsx</v>
       </c>
-      <c r="D16" s="17"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="24" t="str">
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="16" t="str">
+        <f>stg_product_vitrine_departament!B9</f>
+        <v>[dbo].[stg_product_vitrine_departamento]</v>
+      </c>
+      <c r="C20" s="25" t="str">
+        <f>stg_product_vitrine_departament!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D20" s="24" t="str">
         <f>stg_product_vitrine_departament!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\stg_ruptura.dtsx</v>
       </c>
-      <c r="D17" s="17"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="24" t="str">
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="20" t="str">
+        <f>tmp_ods_ruptura_stat_prod_lj!B9</f>
+        <v>[dbo].[tmp_ods_ruptura_status_produto_loja]</v>
+      </c>
+      <c r="C21" s="25" t="str">
+        <f>tmp_ods_ruptura_stat_prod_lj!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D21" s="24" t="str">
         <f>tmp_ods_ruptura_stat_prod_lj!B10</f>
         <v>N:\Migracao\Ruptura Vitrine\Ruptura Vitrine\ods_ruptura.dtsx</v>
       </c>
-      <c r="D18" s="21"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="20"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="20"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="21"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="18"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="19"/>
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="20"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="18"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" location="aux_ods_ruptura_pos_estq_today!A1" display="aux_ods_ruptura_posicao_estoque_today"/>
-    <hyperlink ref="B4" location="aux_ods_rup_stat_prd_lj_today!A1" display="aux_ods_ruptura_status_produto_loja_today"/>
-    <hyperlink ref="B7" location="dim_product_loja!A1" display="dim_product_loja"/>
-    <hyperlink ref="B11" location="stg_corp_categoria!A1" display="stg_corp_categoria"/>
-    <hyperlink ref="B12" location="stg_corp_kit!A1" display="stg_corp_kit"/>
-    <hyperlink ref="B13" location="stg_corp_product!A1" display="stg_corp_product"/>
-    <hyperlink ref="B14" location="stg_corp_sku!A1" display="stg_corp_sku"/>
-    <hyperlink ref="B15" location="stg_loja_product!A1" display="stg_loja_product"/>
-    <hyperlink ref="B16" location="stg_loja_sku!A1" display="stg_loja_sku"/>
-    <hyperlink ref="B17" location="stg_product_vitrine_departament!A1" display="stg_product_vitrine_departamento"/>
-    <hyperlink ref="B18" location="tmp_ods_ruptura_stat_prod_lj!A1" display="tmp_ods_ruptura_status_produto_loja"/>
-    <hyperlink ref="B8" location="fact_ruptura_vitrine!A1" display="fact_ruptura_vitrine"/>
+    <hyperlink ref="B4" location="aux_ods_ruptura_pos_estq_today!A1" display="aux_ods_ruptura_posicao_estoque_today"/>
+    <hyperlink ref="B5" location="aux_ods_rup_stat_prd_lj_today!A1" display="aux_ods_ruptura_status_produto_loja_today"/>
+    <hyperlink ref="B8" location="dim_product_loja!A1" display="dim_product_loja"/>
+    <hyperlink ref="B14" location="stg_corp_categoria!A1" display="stg_corp_categoria"/>
+    <hyperlink ref="B15" location="stg_corp_kit!A1" display="stg_corp_kit"/>
+    <hyperlink ref="B16" location="stg_corp_product!A1" display="stg_corp_product"/>
+    <hyperlink ref="B17" location="stg_corp_sku!A1" display="stg_corp_sku"/>
+    <hyperlink ref="B18" location="stg_loja_product!A1" display="stg_loja_product"/>
+    <hyperlink ref="B19" location="stg_loja_sku!A1" display="stg_loja_sku"/>
+    <hyperlink ref="B20" location="stg_product_vitrine_departament!A1" display="stg_product_vitrine_departamento"/>
+    <hyperlink ref="B21" location="tmp_ods_ruptura_stat_prod_lj!A1" display="tmp_ods_ruptura_status_produto_loja"/>
+    <hyperlink ref="B3" location="aux_ods_product_loja!A1" display="aux_ods_product_loja!A1"/>
+    <hyperlink ref="B10" location="fact_ruptura_vitrine!A1" display="fact_ruptura_vitrine"/>
+    <hyperlink ref="B9" location="dump_ods_product_loja!A1" display="dump_ods_product_loja!A1"/>
+    <hyperlink ref="B6" location="aux_dim_product_loja!A1" display="aux_dim_product_loja!A1"/>
+    <hyperlink ref="B7" location="aux_fact_ruptura_vitrine!A1" display="aux_fact_ruptura_vitrine!A1"/>
+    <hyperlink ref="B11" location="ods_product_loja!A1" display="ods_product_loja!A1"/>
+    <hyperlink ref="B12" location="ods_ruptura_posicao_estoque!A1" display="ods_ruptura_posicao_estoque!A1"/>
+    <hyperlink ref="B13" location="ods_ruptura_status_produto_loja!A1" display="ods_ruptura_status_produto_loja!A1"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1"/>
+    <row r="31" spans="1:5" ht="30" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1"/>
+    <row r="20" spans="1:5" ht="30" customHeight="1"/>
+    <row r="21" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1"/>
+    <row r="23" spans="1:5" ht="30" customHeight="1"/>
+    <row r="24" spans="1:5" ht="30" customHeight="1"/>
+    <row r="25" spans="1:5" ht="30" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1"/>
+    <row r="23" spans="1:5" ht="30" customHeight="1"/>
+    <row r="24" spans="1:5" ht="30" customHeight="1"/>
+    <row r="25" spans="1:5" ht="30" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1"/>
+    <row r="18" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1"/>
+    <row r="19" spans="1:5" ht="30" customHeight="1"/>
+    <row r="20" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1"/>
+    <row r="19" spans="1:5" ht="30" customHeight="1"/>
+    <row r="20" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="D19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="D20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="D21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1"/>
+    <row r="24" spans="1:5" ht="30" customHeight="1"/>
+    <row r="25" spans="1:5" ht="30" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2324,7 +4126,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2332,7 +4134,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2352,52 +4154,162 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+        <v>125</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+        <v>126</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="2"/>
-    </row>
+      <c r="A17" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1"/>
+    <row r="31" spans="1:5" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2405,16 +4317,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2452,7 +4362,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2460,7 +4370,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2468,7 +4378,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2488,39 +4398,92 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="A15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1"/>
-    <row r="18" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="2"/>
-    </row>
+      <c r="A16" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1"/>
+    <row r="23" spans="1:5" ht="30" customHeight="1"/>
+    <row r="24" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1"/>
+    <row r="26" spans="1:5" ht="30" customHeight="1"/>
+    <row r="27" spans="1:5" ht="30" customHeight="1"/>
+    <row r="28" spans="1:5" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2528,16 +4491,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2583,7 +4544,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2591,7 +4552,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2611,44 +4572,82 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="A15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
+      <c r="A16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1"/>
+    <row r="20" spans="1:5" ht="30" customHeight="1"/>
+    <row r="21" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1"/>
+    <row r="23" spans="1:5" ht="30" customHeight="1"/>
+    <row r="24" spans="1:5" ht="30" customHeight="1"/>
+    <row r="25" spans="1:5" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2656,16 +4655,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2711,7 +4708,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2719,7 +4716,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2739,68 +4736,100 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="A15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>24</v>
+      <c r="A16" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
+        <v>61</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1"/>
+    <row r="23" spans="1:5" ht="30" customHeight="1"/>
+    <row r="24" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1"/>
+    <row r="26" spans="1:5" ht="30" customHeight="1"/>
+    <row r="27" spans="1:5" ht="30" customHeight="1"/>
+    <row r="28" spans="1:5" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2808,16 +4837,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2863,7 +4890,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2871,7 +4898,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2891,54 +4918,143 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="13"/>
+      <c r="A15" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>69</v>
+      <c r="A16" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1"/>
-    <row r="19" spans="1:5" ht="30" customHeight="1"/>
+      <c r="A17" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
     <row r="20" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="D20" s="12"/>
       <c r="E20" s="2"/>
     </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1"/>
+    <row r="30" spans="1:5" ht="30" customHeight="1"/>
+    <row r="31" spans="1:5" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2946,16 +5062,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3001,7 +5115,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3009,7 +5123,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -3029,62 +5143,87 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>31</v>
+        <v>73</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>65</v>
+        <v>11</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>144</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1"/>
-    <row r="19" spans="1:5" ht="30" customHeight="1"/>
-    <row r="20" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="2"/>
-    </row>
+      <c r="A17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1"/>
+    <row r="22" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1"/>
+    <row r="24" spans="1:5" ht="30" customHeight="1"/>
+    <row r="25" spans="1:5" ht="30" customHeight="1"/>
+    <row r="26" spans="1:5" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3092,16 +5231,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3147,7 +5284,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3155,7 +5292,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -3175,107 +5312,143 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>75</v>
+      <c r="A15" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>79</v>
+        <v>11</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="11" t="s">
+      <c r="B20" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="6" t="s">
+      <c r="B24" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="D19" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="D20" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="D21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1">
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1"/>
-    <row r="24" spans="1:5" ht="30" customHeight="1"/>
-    <row r="25" spans="1:5" ht="30" customHeight="1"/>
+      <c r="B25" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1"/>
+    <row r="30" spans="1:5" ht="30" customHeight="1"/>
+    <row r="31" spans="1:5" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3283,16 +5456,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3330,7 +5501,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3338,7 +5509,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3346,7 +5517,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -3366,92 +5537,162 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1"/>
-    <row r="23" spans="1:5" ht="30" customHeight="1"/>
-    <row r="24" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1"/>
-    <row r="26" spans="1:5" ht="30" customHeight="1"/>
-    <row r="27" spans="1:5" ht="30" customHeight="1"/>
-    <row r="28" spans="1:5" ht="30" customHeight="1"/>
+      <c r="B25" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1"/>
+    <row r="31" spans="1:5" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3459,16 +5700,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3514,7 +5753,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3522,7 +5761,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -3542,255 +5781,92 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>112</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1"/>
-    <row r="20" spans="1:5" ht="30" customHeight="1"/>
-    <row r="21" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1"/>
-    <row r="23" spans="1:5" ht="30" customHeight="1"/>
-    <row r="24" spans="1:5" ht="30" customHeight="1"/>
-    <row r="25" spans="1:5" ht="30" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:E28"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
       <c r="A19" s="11" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
       <c r="A20" s="11" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1"/>
+      <c r="B22" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
     <row r="23" spans="1:5" ht="30" customHeight="1"/>
     <row r="24" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
       <c r="A24" s="1"/>
@@ -3807,1136 +5883,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:E31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1">
-      <c r="A24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1">
-      <c r="A26" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1">
-      <c r="A28" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1"/>
-    <row r="30" spans="1:5" ht="30" customHeight="1"/>
-    <row r="31" spans="1:5" ht="30" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:E26"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1"/>
-    <row r="22" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1"/>
-    <row r="24" spans="1:5" ht="30" customHeight="1"/>
-    <row r="25" spans="1:5" ht="30" customHeight="1"/>
-    <row r="26" spans="1:5" ht="30" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:E31"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1">
-      <c r="A24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1">
-      <c r="A26" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1">
-      <c r="A28" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1"/>
-    <row r="30" spans="1:5" ht="30" customHeight="1"/>
-    <row r="31" spans="1:5" ht="30" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:E28"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1"/>
-    <row r="24" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1"/>
-    <row r="26" spans="1:5" ht="30" customHeight="1"/>
-    <row r="27" spans="1:5" ht="30" customHeight="1"/>
-    <row r="28" spans="1:5" ht="30" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1"/>
-    <row r="20" spans="1:5" ht="30" customHeight="1"/>
-    <row r="21" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1"/>
-    <row r="23" spans="1:5" ht="30" customHeight="1"/>
-    <row r="24" spans="1:5" ht="30" customHeight="1"/>
-    <row r="25" spans="1:5" ht="30" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1"/>
-    <row r="23" spans="1:5" ht="30" customHeight="1"/>
-    <row r="24" spans="1:5" ht="30" customHeight="1"/>
-    <row r="25" spans="1:5" ht="30" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>